--- a/html/resources/aoiConditions/train2P1Block2.xlsx
+++ b/html/resources/aoiConditions/train2P1Block2.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>
